--- a/test/resultthree/test001_three.xlsx
+++ b/test/resultthree/test001_three.xlsx
@@ -14,7 +14,8 @@
     <sheet name="pla_0.075" sheetId="7" r:id="rId9"/>
     <sheet name="pla_0.225matrix" sheetId="8" r:id="rId10"/>
     <sheet name="pla_0.225" sheetId="9" r:id="rId11"/>
-    <sheet name="compare" sheetId="10" r:id="rId12"/>
+    <sheet name="Rowdates" sheetId="10" r:id="rId12"/>
+    <sheet name="compare" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="519">
   <si>
     <t>Row</t>
   </si>
@@ -120,697 +121,1462 @@
     <t>Name</t>
   </si>
   <si>
+    <t>bunny_cu_0.025_230</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_19</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_227</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_278</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_78</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_203</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_226</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_232</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_243</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_281</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_39</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_80</t>
+  </si>
+  <si>
     <t>bunny_cu_0.025_102</t>
   </si>
   <si>
+    <t>bunny_cu_0.025_125</t>
+  </si>
+  <si>
     <t>bunny_cu_0.025_152</t>
   </si>
   <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_102</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_125</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_152</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_19</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_203</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_226</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_227</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_230</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_232</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_243</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_278</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_281</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_39</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_78</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_80</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_102</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_125</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_152</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_19</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_203</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_226</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_227</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_230</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_232</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_243</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_278</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_281</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_39</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_78</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_80</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_230</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_278</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_19</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_227</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_281</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_78</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_102</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_152</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_203</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_226</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_243</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_39</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_80</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_125</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_232</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_102</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_125</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_152</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_19</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_203</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_226</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_227</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_230</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_232</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_243</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_278</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_281</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_39</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_78</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_80</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_102</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_125</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_152</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_19</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_203</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_226</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_227</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_230</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_232</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_243</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_278</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_281</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_39</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_78</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_80</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_227</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_243</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_125</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_152</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_19</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_232</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_80</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_203</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_226</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_281</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_39</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_78</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_102</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_230</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_278</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_102</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_125</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_152</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_19</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_203</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_226</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_227</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_230</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_232</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_243</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_278</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_281</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_39</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_78</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_80</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_102</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_125</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_152</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_19</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_203</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_226</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_227</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_230</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_232</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_243</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_278</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_281</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_39</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_78</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_80</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_102</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_19</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_203</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_227</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_230</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_39</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_78</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_152</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_226</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_243</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_278</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_281</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_80</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_125</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_232</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_278</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_152</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_203</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_102</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_19</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_243</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_227</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_102</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_203</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_78</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_243</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_278</t>
+  </si>
+  <si>
     <t>bunny_cu_0.025_125</t>
   </si>
   <si>
     <t>bunny_cu_0.025_19</t>
   </si>
   <si>
+    <t>bunny_cu_0.025_243</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_152</t>
+  </si>
+  <si>
     <t>bunny_cu_0.025_203</t>
   </si>
   <si>
+    <t>bunny_cu_0.025_19</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_226</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_39</t>
+  </si>
+  <si>
     <t>bunny_cu_0.025_281</t>
   </si>
   <si>
+    <t>bunny_cu_0.129_19</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_281</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_203</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_80</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_232</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_227</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_226</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_102</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_19</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_243</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_227</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_278</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_232</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_39</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_243</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_102</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_125</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_19</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_281</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_227</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_80</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_125</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_152</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_281</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_19</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_278</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_39</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_227</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_226</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_80</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_243</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_278</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_19</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_78</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_230</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_102</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_19</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_232</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_80</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_152</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_39</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_230</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_232</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_125</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_19</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_230</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_243</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_226</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_39</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_226</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_243</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_78</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_203</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_19</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_227</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_152</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_226</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_227</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_19</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_80</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_281</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_232</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_39</t>
+  </si>
+  <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_232</t>
+  </si>
+  <si>
     <t>bunny_cu_0.025_226</t>
   </si>
   <si>
+    <t>bunny_cu_0.025_39</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_78</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_230</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_80</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_281</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_230</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_80</t>
+  </si>
+  <si>
     <t>bunny_cu_0.025_227</t>
   </si>
   <si>
+    <t>bunny_cu_0.025_226</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_152</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_232</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_80</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_102</t>
+  </si>
+  <si>
     <t>bunny_cu_0.025_230</t>
   </si>
   <si>
+    <t>bunny_cu_0.025_227</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_278</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_78</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_125</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_125</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_243</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_230</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_102</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_39</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_78</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_278</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_281</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_78</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_226</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_152</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_203</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_80</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_125</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_232</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_203</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_39</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_278</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_230</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_78</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_226</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_78</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_80</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_226</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_230</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_203</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_102</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_243</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_203</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_281</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_152</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_102</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_125</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_232</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_39</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_278</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_243</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_78</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_281</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_203</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_125</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_226</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_227</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_278</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_78</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_102</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_152</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_80</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_281</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_80</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_125</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_281</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_39</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_230</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_232</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_278</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_78</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_152</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_102</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_243</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_278</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_230</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_125</t>
+  </si>
+  <si>
+    <t>winner</t>
+  </si>
+  <si>
     <t>bunny_cu_0.025_232</t>
   </si>
   <si>
+    <t>bunny_cu_0.025_226</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_39</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_78</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_230</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_80</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_227</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_281</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_230</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_78</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_227</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_278</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_125</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_232</t>
+  </si>
+  <si>
     <t>bunny_cu_0.025_243</t>
   </si>
   <si>
+    <t>bunny_cu_0.025_152</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_230</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_19</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_226</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_78</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_281</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_125</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_281</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_230</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_80</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_39</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_78</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_226</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_281</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_19</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_226</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_227</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_203</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_80</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_125</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_232</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_203</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_39</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_278</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_230</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_78</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_226</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_78</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_80</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_226</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_230</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_278</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_102</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_243</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_203</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_80</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_152</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_102</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_125</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_232</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_39</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_278</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_243</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_78</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_281</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_203</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_125</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_226</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_232</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_278</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_78</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_230</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_152</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_226</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_39</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_226</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_243</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_78</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_203</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_19</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_227</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_152</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_78</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_227</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_102</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_80</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_278</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_232</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_125</t>
+  </si>
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_230</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_19</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_227</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_278</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_78</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_203</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_226</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_232</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_243</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_281</t>
+  </si>
+  <si>
     <t>bunny_cu_0.025_39</t>
   </si>
   <si>
-    <t>bunny_cu_0.025_78</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.025_278</t>
-  </si>
-  <si>
     <t>bunny_cu_0.025_80</t>
   </si>
   <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Row</t>
+    <t>bunny_cu_0.025_102</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_125</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.025_152</t>
+  </si>
+  <si>
+    <t>score1</t>
+  </si>
+  <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_230</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_278</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_19</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_227</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_281</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_78</t>
   </si>
   <si>
     <t>bunny_cu_0.129_102</t>
   </si>
   <si>
+    <t>bunny_cu_0.129_152</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_203</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_226</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_243</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_39</t>
+  </si>
+  <si>
+    <t>bunny_cu_0.129_80</t>
+  </si>
+  <si>
     <t>bunny_cu_0.129_125</t>
   </si>
   <si>
-    <t>bunny_cu_0.129_152</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_19</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_203</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_226</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_227</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_230</t>
-  </si>
-  <si>
     <t>bunny_cu_0.129_232</t>
   </si>
   <si>
-    <t>bunny_cu_0.129_243</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_278</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_281</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_39</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_78</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_80</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_102</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_125</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_152</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_19</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_203</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_226</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_227</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_230</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_232</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_243</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_278</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_281</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_39</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_78</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_80</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_102</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_230</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_203</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_232</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_281</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_80</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_125</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_152</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_19</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_226</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_243</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_278</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_78</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_227</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_39</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Row</t>
+    <t>score2</t>
+  </si>
+  <si>
+    <t>name3</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_227</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_243</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_125</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_152</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_19</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_232</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_80</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_203</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_226</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_281</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_39</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.075_78</t>
   </si>
   <si>
     <t>bunny_pla_0.075_102</t>
   </si>
   <si>
-    <t>bunny_pla_0.075_125</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_152</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_19</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_203</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_226</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_227</t>
-  </si>
-  <si>
     <t>bunny_pla_0.075_230</t>
   </si>
   <si>
-    <t>bunny_pla_0.075_232</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_243</t>
-  </si>
-  <si>
     <t>bunny_pla_0.075_278</t>
   </si>
   <si>
-    <t>bunny_pla_0.075_281</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_39</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_78</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_80</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_102</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_125</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_152</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_19</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_203</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_226</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_227</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_230</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_232</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_243</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_278</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_281</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_39</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_78</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_80</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_227</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_230</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_102</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_19</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_226</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_39</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_125</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_232</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_243</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_278</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_281</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_78</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_80</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_152</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_203</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Row</t>
+    <t>score3</t>
+  </si>
+  <si>
+    <t>name4</t>
   </si>
   <si>
     <t>bunny_pla_0.225_102</t>
   </si>
   <si>
+    <t>bunny_pla_0.225_19</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_203</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_227</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_230</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_39</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_78</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_152</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_226</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_243</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_278</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_281</t>
+  </si>
+  <si>
+    <t>bunny_pla_0.225_80</t>
+  </si>
+  <si>
     <t>bunny_pla_0.225_125</t>
   </si>
   <si>
-    <t>bunny_pla_0.225_152</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_19</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_203</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_226</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_227</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_230</t>
-  </si>
-  <si>
     <t>bunny_pla_0.225_232</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_243</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_278</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_281</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_39</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_78</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_80</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_102</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_125</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_152</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_19</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_203</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_226</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_227</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_230</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_232</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_243</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_278</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_281</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_39</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_78</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_80</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_232</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_78</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_19</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_230</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_278</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_281</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_80</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_102</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_152</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_203</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_226</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_39</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_125</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_227</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_243</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>name1</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.025_102</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.025_152</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.025_125</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.025_19</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.025_203</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.025_281</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.025_226</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.025_227</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.025_230</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.025_232</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.025_243</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.025_39</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.025_78</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.025_278</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.025_80</t>
-  </si>
-  <si>
-    <t>score1</t>
-  </si>
-  <si>
-    <t>name2</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_102</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_230</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_203</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_232</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_281</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_80</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_125</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_152</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_19</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_226</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_243</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_278</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_78</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_227</t>
-  </si>
-  <si>
-    <t>bunny_cu_0.129_39</t>
-  </si>
-  <si>
-    <t>score2</t>
-  </si>
-  <si>
-    <t>name3</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_227</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_230</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_102</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_19</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_226</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_39</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_125</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_232</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_243</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_278</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_281</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_78</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_80</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_152</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.075_203</t>
-  </si>
-  <si>
-    <t>score3</t>
-  </si>
-  <si>
-    <t>name4</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_232</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_78</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_19</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_230</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_278</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_281</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_80</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_102</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_152</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_203</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_226</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_39</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_125</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_227</t>
-  </si>
-  <si>
-    <t>bunny_pla_0.225_243</t>
   </si>
   <si>
     <t>score4</t>
@@ -859,11 +1625,1216 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D85"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="true"/>
+    <col min="2" max="2" width="20" customWidth="true"/>
+    <col min="3" max="3" width="20" customWidth="true"/>
+    <col min="4" max="4" width="20" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45540.726257273018</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45540.726261002121</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45540.726263568024</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45540.726265644516</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45540.726267668142</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45540.726269705243</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45540.726272077685</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45540.726274695648</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45540.726276149115</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45540.72627784581</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45540.726278968417</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45540.726281736119</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45540.726283384793</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45540.726284498473</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45540.726287468926</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45540.726289334743</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45540.726290794351</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45540.726293940315</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45540.726295834327</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45540.726297282825</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45540.726299119109</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45540.726346948832</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45540.726348579868</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45540.726350047</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45540.726351572004</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45540.726354701801</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45540.726355988889</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>45540.726357650623</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>45540.726359135428</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>45540.726360607128</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>45540.726361957742</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>45540.726365235394</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>45540.726367112395</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>45540.726369547483</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>45540.72637156165</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>45540.726373395126</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>45540.726375240614</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>45540.726377469786</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>45540.726379356347</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>45540.726381543936</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>45540.726383789399</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>45540.726385830756</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>45540.726492336202</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>45540.726494516355</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>45540.72649692728</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>45540.726499940727</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>45540.726501185825</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>45540.726503967649</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>45540.726506970881</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>45540.726508441599</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>45540.726512866131</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>45540.726514538408</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>45540.726516736882</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>45540.726518960742</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>45540.726521009972</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>45540.726523276106</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>45540.726525446167</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>45540.726527684339</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>45540.726530118554</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>45540.726532479363</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>45540.726534933427</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>45540.726537485418</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>45540.726540264608</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>45540.726591051905</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>45540.726593835032</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>45540.726595679604</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>45540.726597139859</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>45540.726598068788</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>45540.726600300521</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>45540.726602158669</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>45540.726603980416</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>45540.726605849159</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>45540.726607883822</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>45540.726609765297</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>45540.726611382444</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>45540.726613056817</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
+        <v>45540.726615084226</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>45540.726617347435</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>45540.726618467896</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>45540.72661956829</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>45540.726621224967</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
+        <v>45540.726622148584</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1">
+        <v>45540.726623831346</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1">
+        <v>45540.726624949988</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>450</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="true"/>
-    <col min="2" max="2" width="13.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
     <col min="3" max="3" width="19.28515625" customWidth="true"/>
     <col min="4" max="4" width="13.42578125" customWidth="true"/>
     <col min="5" max="5" width="20" customWidth="true"/>
@@ -874,51 +2845,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>196</v>
+        <v>451</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>212</v>
+        <v>467</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>213</v>
+        <v>468</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>229</v>
+        <v>484</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>230</v>
+        <v>485</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>246</v>
+        <v>501</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>247</v>
+        <v>502</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>263</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>197</v>
+        <v>452</v>
       </c>
       <c r="B2" s="0">
-        <v>0.54951025142376531</v>
+        <v>0.61819903285173594</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>214</v>
+        <v>469</v>
       </c>
       <c r="D2" s="0">
         <v>0.54951025142376531</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>231</v>
+        <v>486</v>
       </c>
       <c r="F2" s="0">
         <v>0.54951025142376531</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>248</v>
+        <v>503</v>
       </c>
       <c r="H2" s="0">
         <v>0.54951025142376531</v>
@@ -926,51 +2897,51 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>198</v>
+        <v>453</v>
       </c>
       <c r="B3" s="0">
-        <v>0.54951025142376531</v>
+        <v>0.27475512571188254</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>215</v>
+        <v>470</v>
       </c>
       <c r="D3" s="0">
         <v>0.54951025142376531</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>232</v>
+        <v>487</v>
       </c>
       <c r="F3" s="0">
         <v>0.54951025142376531</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>249</v>
+        <v>504</v>
       </c>
       <c r="H3" s="0">
-        <v>0.54951025142376531</v>
+        <v>0.20606634428391191</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>199</v>
+        <v>454</v>
       </c>
       <c r="B4" s="0">
-        <v>0.20606634428391191</v>
+        <v>0.27475512571188254</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>216</v>
+        <v>471</v>
       </c>
       <c r="D4" s="0">
         <v>0.20606634428391191</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>233</v>
+        <v>488</v>
       </c>
       <c r="F4" s="0">
         <v>0.20606634428391191</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>250</v>
+        <v>505</v>
       </c>
       <c r="H4" s="0">
         <v>0.20606634428391191</v>
@@ -978,25 +2949,25 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>200</v>
+        <v>455</v>
       </c>
       <c r="B5" s="0">
-        <v>0.20606634428391191</v>
+        <v>0.27475512571188254</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>217</v>
+        <v>472</v>
       </c>
       <c r="D5" s="0">
         <v>0.20606634428391191</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>234</v>
+        <v>489</v>
       </c>
       <c r="F5" s="0">
         <v>0.20606634428391191</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>251</v>
+        <v>506</v>
       </c>
       <c r="H5" s="0">
         <v>0.20606634428391191</v>
@@ -1004,25 +2975,25 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>201</v>
+        <v>456</v>
       </c>
       <c r="B6" s="0">
-        <v>0.20606634428391191</v>
+        <v>0.27475512571188254</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>218</v>
+        <v>473</v>
       </c>
       <c r="D6" s="0">
         <v>0.20606634428391191</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>235</v>
+        <v>490</v>
       </c>
       <c r="F6" s="0">
         <v>0.20606634428391191</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>252</v>
+        <v>507</v>
       </c>
       <c r="H6" s="0">
         <v>0.20606634428391191</v>
@@ -1030,25 +3001,25 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>202</v>
+        <v>457</v>
       </c>
       <c r="B7" s="0">
-        <v>0.20606634428391191</v>
+        <v>-0.06868878142797108</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>219</v>
+        <v>474</v>
       </c>
       <c r="D7" s="0">
         <v>0.20606634428391191</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>236</v>
+        <v>491</v>
       </c>
       <c r="F7" s="0">
         <v>0.20606634428391191</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>253</v>
+        <v>508</v>
       </c>
       <c r="H7" s="0">
         <v>0.20606634428391191</v>
@@ -1056,25 +3027,25 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>203</v>
+        <v>458</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.13737756285594172</v>
+        <v>-0.06868878142797108</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>220</v>
+        <v>475</v>
       </c>
       <c r="D8" s="0">
         <v>-0.13737756285594172</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>237</v>
+        <v>492</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.13737756285594172</v>
+        <v>0.20606634428391191</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>254</v>
+        <v>509</v>
       </c>
       <c r="H8" s="0">
         <v>0.20606634428391191</v>
@@ -1082,25 +3053,25 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>204</v>
+        <v>459</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.13737756285594172</v>
+        <v>-0.06868878142797108</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>221</v>
+        <v>476</v>
       </c>
       <c r="D9" s="0">
         <v>-0.13737756285594172</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>238</v>
+        <v>493</v>
       </c>
       <c r="F9" s="0">
         <v>-0.13737756285594172</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>255</v>
+        <v>510</v>
       </c>
       <c r="H9" s="0">
         <v>-0.13737756285594172</v>
@@ -1108,25 +3079,25 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>205</v>
+        <v>460</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.13737756285594172</v>
+        <v>-0.06868878142797108</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>222</v>
+        <v>477</v>
       </c>
       <c r="D10" s="0">
         <v>-0.13737756285594172</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>239</v>
+        <v>494</v>
       </c>
       <c r="F10" s="0">
         <v>-0.13737756285594172</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>256</v>
+        <v>511</v>
       </c>
       <c r="H10" s="0">
         <v>-0.13737756285594172</v>
@@ -1134,25 +3105,25 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>206</v>
+        <v>461</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.13737756285594172</v>
+        <v>-0.06868878142797108</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>223</v>
+        <v>478</v>
       </c>
       <c r="D11" s="0">
         <v>-0.13737756285594172</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>240</v>
+        <v>495</v>
       </c>
       <c r="F11" s="0">
         <v>-0.13737756285594172</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>257</v>
+        <v>512</v>
       </c>
       <c r="H11" s="0">
         <v>-0.13737756285594172</v>
@@ -1160,25 +3131,25 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>207</v>
+        <v>462</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.13737756285594172</v>
+        <v>-0.06868878142797108</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>224</v>
+        <v>479</v>
       </c>
       <c r="D12" s="0">
         <v>-0.13737756285594172</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>241</v>
+        <v>496</v>
       </c>
       <c r="F12" s="0">
         <v>-0.13737756285594172</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>258</v>
+        <v>513</v>
       </c>
       <c r="H12" s="0">
         <v>-0.13737756285594172</v>
@@ -1186,25 +3157,25 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>208</v>
+        <v>463</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.13737756285594172</v>
+        <v>-0.06868878142797108</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>225</v>
+        <v>480</v>
       </c>
       <c r="D13" s="0">
         <v>-0.13737756285594172</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>242</v>
+        <v>497</v>
       </c>
       <c r="F13" s="0">
         <v>-0.13737756285594172</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>259</v>
+        <v>514</v>
       </c>
       <c r="H13" s="0">
         <v>-0.13737756285594172</v>
@@ -1212,51 +3183,51 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>209</v>
+        <v>464</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.13737756285594172</v>
+        <v>-0.41213268856782426</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>226</v>
+        <v>481</v>
       </c>
       <c r="D14" s="0">
         <v>-0.13737756285594172</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>243</v>
+        <v>498</v>
       </c>
       <c r="F14" s="0">
+        <v>-0.48082146999579489</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="H14" s="0">
         <v>-0.13737756285594172</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="H14" s="0">
-        <v>-0.48082146999579489</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>210</v>
+        <v>465</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.48082146999579489</v>
+        <v>-0.41213268856782426</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>227</v>
+        <v>482</v>
       </c>
       <c r="D15" s="0">
         <v>-0.48082146999579489</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>244</v>
+        <v>499</v>
       </c>
       <c r="F15" s="0">
         <v>-0.48082146999579489</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>261</v>
+        <v>516</v>
       </c>
       <c r="H15" s="0">
         <v>-0.48082146999579489</v>
@@ -1264,25 +3235,25 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>211</v>
+        <v>466</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.48082146999579489</v>
+        <v>-0.41213268856782426</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>228</v>
+        <v>483</v>
       </c>
       <c r="D16" s="0">
         <v>-0.48082146999579489</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>245</v>
+        <v>500</v>
       </c>
       <c r="F16" s="0">
         <v>-0.48082146999579489</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>262</v>
+        <v>517</v>
       </c>
       <c r="H16" s="0">
         <v>-0.48082146999579489</v>
@@ -1374,22 +3345,20 @@
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
-      <c r="G2" s="0">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0">
-        <v>1</v>
-      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
       <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
+      <c r="K2" s="0">
+        <v>0</v>
+      </c>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
       <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
+      <c r="P2" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
@@ -1397,21 +3366,19 @@
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
-      <c r="D3" s="0">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0">
+        <v>0</v>
+      </c>
       <c r="G3" s="0"/>
-      <c r="H3" s="0">
-        <v>1</v>
-      </c>
+      <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
+      <c r="L3" s="0">
+        <v>0</v>
+      </c>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
       <c r="O3" s="0"/>
@@ -1422,24 +3389,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="0"/>
-      <c r="C4" s="0">
-        <v>1</v>
-      </c>
+      <c r="C4" s="0"/>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
-      <c r="F4" s="0">
-        <v>1</v>
-      </c>
+      <c r="F4" s="0"/>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
-      <c r="M4" s="0">
-        <v>1</v>
-      </c>
-      <c r="N4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0">
+        <v>0</v>
+      </c>
       <c r="O4" s="0"/>
       <c r="P4" s="0"/>
     </row>
@@ -1448,25 +3413,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="0"/>
-      <c r="C5" s="0">
-        <v>0</v>
-      </c>
+      <c r="C5" s="0"/>
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
-      <c r="I5" s="0"/>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
       <c r="J5" s="0"/>
-      <c r="K5" s="0"/>
-      <c r="L5" s="0">
-        <v>1</v>
-      </c>
+      <c r="K5" s="0">
+        <v>1</v>
+      </c>
+      <c r="L5" s="0"/>
       <c r="M5" s="0"/>
-      <c r="N5" s="0">
-        <v>1</v>
-      </c>
-      <c r="O5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0">
+        <v>1</v>
+      </c>
       <c r="P5" s="0"/>
     </row>
     <row r="6">
@@ -1474,15 +3439,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0"/>
-      <c r="C6" s="0"/>
-      <c r="D6" s="0">
-        <v>0</v>
-      </c>
+      <c r="C6" s="0">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
-      <c r="G6" s="0">
-        <v>1</v>
-      </c>
+      <c r="G6" s="0"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
@@ -1491,7 +3454,7 @@
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
       <c r="O6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="0"/>
     </row>
@@ -1499,42 +3462,38 @@
       <c r="A7" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0">
-        <v>0</v>
-      </c>
+      <c r="B7" s="0"/>
       <c r="C7" s="0"/>
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
-      <c r="F7" s="0">
-        <v>0</v>
-      </c>
+      <c r="F7" s="0"/>
       <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
-      <c r="O7" s="0">
-        <v>1</v>
-      </c>
-      <c r="P7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0">
-        <v>0</v>
-      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
+      <c r="G8" s="0">
+        <v>1</v>
+      </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0">
@@ -1551,27 +3510,27 @@
       <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0">
-        <v>0</v>
-      </c>
+      <c r="B9" s="0"/>
       <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
+      <c r="D9" s="0">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0">
+        <v>1</v>
+      </c>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
-      <c r="K9" s="0">
-        <v>0</v>
-      </c>
+      <c r="K9" s="0"/>
       <c r="L9" s="0"/>
-      <c r="M9" s="0"/>
+      <c r="M9" s="0">
+        <v>1</v>
+      </c>
       <c r="N9" s="0"/>
       <c r="O9" s="0"/>
-      <c r="P9" s="0">
-        <v>1</v>
-      </c>
+      <c r="P9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
@@ -1589,7 +3548,9 @@
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
-      <c r="L10" s="0"/>
+      <c r="L10" s="0">
+        <v>0</v>
+      </c>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
       <c r="O10" s="0"/>
@@ -1601,25 +3562,23 @@
       <c r="A11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0"/>
+      <c r="B11" s="0">
+        <v>1</v>
+      </c>
       <c r="C11" s="0"/>
       <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
+      <c r="E11" s="0">
+        <v>0</v>
+      </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
-      <c r="I11" s="0">
-        <v>1</v>
-      </c>
+      <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
-      <c r="M11" s="0">
-        <v>0</v>
-      </c>
-      <c r="N11" s="0">
-        <v>0</v>
-      </c>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
       <c r="O11" s="0"/>
       <c r="P11" s="0"/>
     </row>
@@ -1628,23 +3587,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
+      <c r="C12" s="0">
+        <v>1</v>
+      </c>
       <c r="D12" s="0"/>
-      <c r="E12" s="0">
-        <v>0</v>
-      </c>
+      <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
+      <c r="J12" s="0">
+        <v>1</v>
+      </c>
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
-      <c r="O12" s="0">
-        <v>0</v>
-      </c>
+      <c r="O12" s="0"/>
       <c r="P12" s="0"/>
     </row>
     <row r="13">
@@ -1653,25 +3612,25 @@
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
-      <c r="D13" s="0">
-        <v>0</v>
-      </c>
+      <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
       <c r="J13" s="0"/>
-      <c r="K13" s="0">
-        <v>1</v>
-      </c>
+      <c r="K13" s="0"/>
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
-      <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
-      <c r="P13" s="0">
-        <v>1</v>
-      </c>
+      <c r="N13" s="0">
+        <v>1</v>
+      </c>
+      <c r="O13" s="0">
+        <v>0</v>
+      </c>
+      <c r="P13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
@@ -1679,20 +3638,20 @@
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0">
-        <v>0</v>
-      </c>
+      <c r="D14" s="0">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
-      <c r="K14" s="0">
-        <v>1</v>
-      </c>
+      <c r="K14" s="0"/>
       <c r="L14" s="0"/>
-      <c r="M14" s="0"/>
+      <c r="M14" s="0">
+        <v>0</v>
+      </c>
       <c r="N14" s="0"/>
       <c r="O14" s="0"/>
       <c r="P14" s="0"/>
@@ -1704,21 +3663,21 @@
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
+      <c r="E15" s="0">
+        <v>0</v>
+      </c>
       <c r="F15" s="0">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G15" s="0"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
-      <c r="L15" s="0">
-        <v>1</v>
-      </c>
-      <c r="M15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0">
+        <v>1</v>
+      </c>
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
       <c r="P15" s="0"/>
@@ -1727,24 +3686,24 @@
       <c r="A16" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="0"/>
+      <c r="B16" s="0">
+        <v>1</v>
+      </c>
       <c r="C16" s="0"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
+      <c r="G16" s="0">
+        <v>0</v>
+      </c>
       <c r="H16" s="0"/>
-      <c r="I16" s="0">
-        <v>0</v>
-      </c>
+      <c r="I16" s="0"/>
       <c r="J16" s="0">
         <v>0</v>
       </c>
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
-      <c r="M16" s="0">
-        <v>0</v>
-      </c>
+      <c r="M16" s="0"/>
       <c r="N16" s="0"/>
       <c r="O16" s="0"/>
       <c r="P16" s="0"/>
@@ -1759,7 +3718,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="true"/>
-    <col min="2" max="2" width="13.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
     <col min="3" max="3" width="3.140625" customWidth="true"/>
   </cols>
   <sheetData>
@@ -1779,10 +3738,10 @@
         <v>32</v>
       </c>
       <c r="B2" s="0">
-        <v>0.54951025142376531</v>
+        <v>0.61819903285173594</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1790,10 +3749,10 @@
         <v>33</v>
       </c>
       <c r="B3" s="0">
-        <v>0.54951025142376531</v>
+        <v>0.27475512571188254</v>
       </c>
       <c r="C3" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1801,10 +3760,10 @@
         <v>34</v>
       </c>
       <c r="B4" s="0">
-        <v>0.20606634428391191</v>
+        <v>0.27475512571188254</v>
       </c>
       <c r="C4" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1812,10 +3771,10 @@
         <v>35</v>
       </c>
       <c r="B5" s="0">
-        <v>0.20606634428391191</v>
+        <v>0.27475512571188254</v>
       </c>
       <c r="C5" s="0">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -1823,10 +3782,10 @@
         <v>36</v>
       </c>
       <c r="B6" s="0">
-        <v>0.20606634428391191</v>
+        <v>0.27475512571188254</v>
       </c>
       <c r="C6" s="0">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -1834,10 +3793,10 @@
         <v>37</v>
       </c>
       <c r="B7" s="0">
-        <v>0.20606634428391191</v>
+        <v>-0.06868878142797108</v>
       </c>
       <c r="C7" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1845,7 +3804,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.13737756285594172</v>
+        <v>-0.06868878142797108</v>
       </c>
       <c r="C8" s="0">
         <v>6</v>
@@ -1856,10 +3815,10 @@
         <v>39</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.13737756285594172</v>
+        <v>-0.06868878142797108</v>
       </c>
       <c r="C9" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1867,10 +3826,10 @@
         <v>40</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.13737756285594172</v>
+        <v>-0.06868878142797108</v>
       </c>
       <c r="C10" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1878,10 +3837,10 @@
         <v>41</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.13737756285594172</v>
+        <v>-0.06868878142797108</v>
       </c>
       <c r="C11" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -1889,10 +3848,10 @@
         <v>42</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.13737756285594172</v>
+        <v>-0.06868878142797108</v>
       </c>
       <c r="C12" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1900,10 +3859,10 @@
         <v>43</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.13737756285594172</v>
+        <v>-0.06868878142797108</v>
       </c>
       <c r="C13" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1911,10 +3870,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.13737756285594172</v>
+        <v>-0.41213268856782426</v>
       </c>
       <c r="C14" s="0">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1922,10 +3881,10 @@
         <v>45</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.48082146999579489</v>
+        <v>-0.41213268856782426</v>
       </c>
       <c r="C15" s="0">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +3892,10 @@
         <v>46</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.48082146999579489</v>
+        <v>-0.41213268856782426</v>
       </c>
       <c r="C16" s="0">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2021,10 +3980,10 @@
         <v>50</v>
       </c>
       <c r="B2" s="0"/>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0">
+        <v>0</v>
+      </c>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
@@ -2034,9 +3993,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="0"/>
-      <c r="L2" s="0">
-        <v>1</v>
-      </c>
+      <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
       <c r="O2" s="0"/>
@@ -2046,33 +4003,35 @@
       <c r="A3" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="0">
-        <v>0</v>
-      </c>
+      <c r="B3" s="0"/>
       <c r="C3" s="0"/>
       <c r="D3" s="0"/>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
-      <c r="M3" s="0">
-        <v>0</v>
-      </c>
+      <c r="M3" s="0"/>
       <c r="N3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
+      <c r="P3" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="0"/>
+      <c r="B4" s="0">
+        <v>1</v>
+      </c>
       <c r="C4" s="0"/>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
@@ -2080,18 +4039,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
       <c r="I4" s="0"/>
-      <c r="J4" s="0">
-        <v>0</v>
-      </c>
+      <c r="J4" s="0"/>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
-      <c r="O4" s="0">
-        <v>1</v>
-      </c>
+      <c r="O4" s="0"/>
       <c r="P4" s="0"/>
     </row>
     <row r="5">
@@ -2102,21 +4059,23 @@
       <c r="C5" s="0"/>
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0">
-        <v>1</v>
-      </c>
+      <c r="F5" s="0">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
-      <c r="L5" s="0"/>
-      <c r="M5" s="0"/>
+      <c r="L5" s="0">
+        <v>0</v>
+      </c>
+      <c r="M5" s="0">
+        <v>1</v>
+      </c>
       <c r="N5" s="0"/>
       <c r="O5" s="0"/>
-      <c r="P5" s="0">
-        <v>0</v>
-      </c>
+      <c r="P5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
@@ -2127,17 +4086,15 @@
       <c r="D6" s="0">
         <v>1</v>
       </c>
-      <c r="E6" s="0"/>
+      <c r="E6" s="0">
+        <v>0</v>
+      </c>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
+      <c r="I6" s="0"/>
       <c r="J6" s="0"/>
-      <c r="K6" s="0">
-        <v>1</v>
-      </c>
+      <c r="K6" s="0"/>
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
@@ -2151,22 +4108,22 @@
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
       <c r="D7" s="0"/>
-      <c r="E7" s="0">
-        <v>0</v>
-      </c>
+      <c r="E7" s="0"/>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0">
         <v>0</v>
       </c>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
+      <c r="J7" s="0">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0">
+        <v>0</v>
+      </c>
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
-      <c r="N7" s="0">
-        <v>1</v>
-      </c>
+      <c r="N7" s="0"/>
       <c r="O7" s="0"/>
       <c r="P7" s="0"/>
     </row>
@@ -2175,26 +4132,26 @@
         <v>56</v>
       </c>
       <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
+      <c r="C8" s="0">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0">
+        <v>1</v>
+      </c>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
       <c r="J8" s="0"/>
-      <c r="K8" s="0">
-        <v>0</v>
-      </c>
+      <c r="K8" s="0"/>
       <c r="L8" s="0"/>
-      <c r="M8" s="0">
-        <v>0</v>
-      </c>
+      <c r="M8" s="0"/>
       <c r="N8" s="0"/>
       <c r="O8" s="0"/>
-      <c r="P8" s="0">
-        <v>0</v>
-      </c>
+      <c r="P8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
@@ -2204,23 +4161,23 @@
       <c r="C9" s="0"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
-      <c r="F9" s="0">
-        <v>1</v>
-      </c>
+      <c r="F9" s="0"/>
       <c r="G9" s="0">
         <v>1</v>
       </c>
-      <c r="H9" s="0"/>
+      <c r="H9" s="0">
+        <v>1</v>
+      </c>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
-      <c r="M9" s="0">
-        <v>1</v>
-      </c>
+      <c r="M9" s="0"/>
       <c r="N9" s="0"/>
       <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
+      <c r="P9" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
@@ -2230,12 +4187,12 @@
         <v>0</v>
       </c>
       <c r="C10" s="0"/>
-      <c r="D10" s="0">
-        <v>1</v>
-      </c>
+      <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
+      <c r="G10" s="0">
+        <v>0</v>
+      </c>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
@@ -2244,7 +4201,7 @@
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
       <c r="O10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="0"/>
     </row>
@@ -2256,20 +4213,20 @@
       <c r="C11" s="0"/>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
-      <c r="F11" s="0">
-        <v>0</v>
-      </c>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0">
-        <v>1</v>
-      </c>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
       <c r="L11" s="0">
         <v>0</v>
       </c>
-      <c r="M11" s="0"/>
+      <c r="M11" s="0">
+        <v>0</v>
+      </c>
       <c r="N11" s="0"/>
       <c r="O11" s="0"/>
       <c r="P11" s="0"/>
@@ -2278,12 +4235,12 @@
       <c r="A12" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="0">
-        <v>0</v>
-      </c>
+      <c r="B12" s="0"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
+      <c r="E12" s="0">
+        <v>1</v>
+      </c>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
@@ -2294,7 +4251,9 @@
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
-      <c r="N12" s="0"/>
+      <c r="N12" s="0">
+        <v>1</v>
+      </c>
       <c r="O12" s="0"/>
       <c r="P12" s="0"/>
     </row>
@@ -2303,26 +4262,26 @@
         <v>61</v>
       </c>
       <c r="B13" s="0"/>
-      <c r="C13" s="0">
-        <v>1</v>
-      </c>
+      <c r="C13" s="0"/>
       <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
+      <c r="E13" s="0">
+        <v>0</v>
+      </c>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
-      <c r="H13" s="0">
-        <v>1</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0</v>
-      </c>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
       <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
+      <c r="K13" s="0">
+        <v>1</v>
+      </c>
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
+      <c r="P13" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
@@ -2330,22 +4289,24 @@
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
-      <c r="G14" s="0">
-        <v>0</v>
-      </c>
+      <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
+      <c r="L14" s="0">
+        <v>0</v>
+      </c>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
+      <c r="O14" s="0">
+        <v>0</v>
+      </c>
       <c r="P14" s="0"/>
     </row>
     <row r="15">
@@ -2354,50 +4315,48 @@
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
-      <c r="D15" s="0">
-        <v>0</v>
-      </c>
+      <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
-      <c r="N15" s="0"/>
+      <c r="N15" s="0">
+        <v>1</v>
+      </c>
       <c r="O15" s="0"/>
-      <c r="P15" s="0">
-        <v>1</v>
-      </c>
+      <c r="P15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
+      <c r="C16" s="0">
+        <v>1</v>
+      </c>
       <c r="D16" s="0"/>
-      <c r="E16" s="0">
-        <v>1</v>
-      </c>
+      <c r="E16" s="0"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
-      <c r="H16" s="0">
-        <v>1</v>
-      </c>
-      <c r="I16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
-      <c r="M16" s="0"/>
+      <c r="M16" s="0">
+        <v>0</v>
+      </c>
       <c r="N16" s="0"/>
-      <c r="O16" s="0">
-        <v>0</v>
-      </c>
+      <c r="O16" s="0"/>
       <c r="P16" s="0"/>
     </row>
   </sheetData>
@@ -2433,7 +4392,7 @@
         <v>0.54951025142376531</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2444,7 +4403,7 @@
         <v>0.54951025142376531</v>
       </c>
       <c r="C3" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -2455,7 +4414,7 @@
         <v>0.20606634428391191</v>
       </c>
       <c r="C4" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2466,7 +4425,7 @@
         <v>0.20606634428391191</v>
       </c>
       <c r="C5" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2488,7 +4447,7 @@
         <v>0.20606634428391191</v>
       </c>
       <c r="C7" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -2499,7 +4458,7 @@
         <v>-0.13737756285594172</v>
       </c>
       <c r="C8" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2521,7 +4480,7 @@
         <v>-0.13737756285594172</v>
       </c>
       <c r="C10" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -2554,7 +4513,7 @@
         <v>-0.13737756285594172</v>
       </c>
       <c r="C13" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -2565,7 +4524,7 @@
         <v>-0.13737756285594172</v>
       </c>
       <c r="C14" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2576,7 +4535,7 @@
         <v>-0.48082146999579489</v>
       </c>
       <c r="C15" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2587,7 +4546,7 @@
         <v>-0.48082146999579489</v>
       </c>
       <c r="C16" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2673,24 +4632,24 @@
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
+      <c r="D2" s="0">
+        <v>0</v>
+      </c>
       <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
+      <c r="F2" s="0">
+        <v>0</v>
+      </c>
       <c r="G2" s="0"/>
       <c r="H2" s="0">
         <v>0</v>
       </c>
       <c r="I2" s="0"/>
-      <c r="J2" s="0">
-        <v>1</v>
-      </c>
+      <c r="J2" s="0"/>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
-      <c r="O2" s="0">
-        <v>1</v>
-      </c>
+      <c r="O2" s="0"/>
       <c r="P2" s="0"/>
     </row>
     <row r="3">
@@ -2705,43 +4664,45 @@
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
+      <c r="N3" s="0">
+        <v>1</v>
+      </c>
       <c r="O3" s="0"/>
-      <c r="P3" s="0">
-        <v>1</v>
-      </c>
+      <c r="P3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="0"/>
+      <c r="B4" s="0">
+        <v>1</v>
+      </c>
       <c r="C4" s="0"/>
       <c r="D4" s="0"/>
-      <c r="E4" s="0">
-        <v>0</v>
-      </c>
+      <c r="E4" s="0"/>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
       <c r="I4" s="0"/>
-      <c r="J4" s="0">
-        <v>0</v>
-      </c>
+      <c r="J4" s="0"/>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
-      <c r="O4" s="0">
-        <v>0</v>
-      </c>
-      <c r="P4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
@@ -2749,51 +4710,51 @@
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0"/>
-      <c r="D5" s="0">
-        <v>1</v>
-      </c>
+      <c r="D5" s="0"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
+      <c r="G5" s="0">
+        <v>1</v>
+      </c>
       <c r="H5" s="0"/>
-      <c r="I5" s="0">
-        <v>0</v>
-      </c>
+      <c r="I5" s="0"/>
       <c r="J5" s="0"/>
-      <c r="K5" s="0">
-        <v>1</v>
-      </c>
-      <c r="L5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0">
+        <v>1</v>
+      </c>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
       <c r="O5" s="0"/>
-      <c r="P5" s="0"/>
+      <c r="P5" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="0"/>
+      <c r="B6" s="0">
+        <v>1</v>
+      </c>
       <c r="C6" s="0"/>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
-      <c r="G6" s="0">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
-      <c r="L6" s="0">
-        <v>0</v>
-      </c>
+      <c r="L6" s="0"/>
       <c r="M6" s="0"/>
-      <c r="N6" s="0"/>
+      <c r="N6" s="0">
+        <v>0</v>
+      </c>
       <c r="O6" s="0"/>
-      <c r="P6" s="0">
-        <v>0</v>
-      </c>
+      <c r="P6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
@@ -2802,22 +4763,22 @@
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
       <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0">
-        <v>1</v>
-      </c>
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0"/>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
-      <c r="I7" s="0">
-        <v>0</v>
-      </c>
+      <c r="I7" s="0"/>
       <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
+      <c r="K7" s="0">
+        <v>0</v>
+      </c>
       <c r="L7" s="0"/>
-      <c r="M7" s="0">
-        <v>1</v>
-      </c>
-      <c r="N7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0">
+        <v>1</v>
+      </c>
       <c r="O7" s="0"/>
       <c r="P7" s="0"/>
     </row>
@@ -2829,20 +4790,20 @@
         <v>1</v>
       </c>
       <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
+      <c r="D8" s="0">
+        <v>1</v>
+      </c>
       <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
+      <c r="F8" s="0">
+        <v>1</v>
+      </c>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
-      <c r="K8" s="0">
-        <v>1</v>
-      </c>
+      <c r="K8" s="0"/>
       <c r="L8" s="0"/>
-      <c r="M8" s="0">
-        <v>1</v>
-      </c>
+      <c r="M8" s="0"/>
       <c r="N8" s="0"/>
       <c r="O8" s="0"/>
       <c r="P8" s="0"/>
@@ -2853,22 +4814,20 @@
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0"/>
-      <c r="E9" s="0">
-        <v>1</v>
-      </c>
+      <c r="E9" s="0"/>
       <c r="F9" s="0"/>
-      <c r="G9" s="0">
-        <v>1</v>
-      </c>
+      <c r="G9" s="0"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
-      <c r="M9" s="0"/>
+      <c r="M9" s="0">
+        <v>0</v>
+      </c>
       <c r="N9" s="0"/>
       <c r="O9" s="0"/>
       <c r="P9" s="0"/>
@@ -2877,25 +4836,25 @@
       <c r="A10" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="0">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0"/>
-      <c r="D10" s="0">
-        <v>1</v>
-      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
+      <c r="K10" s="0">
+        <v>0</v>
+      </c>
       <c r="L10" s="0"/>
-      <c r="M10" s="0"/>
-      <c r="N10" s="0">
-        <v>0</v>
-      </c>
+      <c r="M10" s="0">
+        <v>1</v>
+      </c>
+      <c r="N10" s="0"/>
       <c r="O10" s="0"/>
       <c r="P10" s="0"/>
     </row>
@@ -2906,24 +4865,24 @@
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
       <c r="D11" s="0"/>
-      <c r="E11" s="0">
-        <v>0</v>
-      </c>
+      <c r="E11" s="0"/>
       <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0">
-        <v>0</v>
-      </c>
+      <c r="G11" s="0">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0"/>
       <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
+      <c r="J11" s="0">
+        <v>1</v>
+      </c>
       <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
+      <c r="L11" s="0">
+        <v>1</v>
+      </c>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
       <c r="O11" s="0"/>
-      <c r="P11" s="0">
-        <v>1</v>
-      </c>
+      <c r="P11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
@@ -2932,24 +4891,24 @@
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0">
-        <v>1</v>
-      </c>
+      <c r="E12" s="0">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
+      <c r="K12" s="0">
+        <v>0</v>
+      </c>
       <c r="L12" s="0"/>
-      <c r="M12" s="0">
-        <v>0</v>
-      </c>
-      <c r="N12" s="0">
-        <v>0</v>
-      </c>
+      <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
       <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
+      <c r="P12" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
@@ -2960,21 +4919,21 @@
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
-      <c r="G13" s="0">
-        <v>0</v>
-      </c>
-      <c r="H13" s="0">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0">
+        <v>1</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
       <c r="K13" s="0"/>
-      <c r="L13" s="0">
-        <v>1</v>
-      </c>
+      <c r="L13" s="0"/>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
+      <c r="O13" s="0">
+        <v>0</v>
+      </c>
       <c r="P13" s="0"/>
     </row>
     <row r="14">
@@ -2982,20 +4941,22 @@
         <v>111</v>
       </c>
       <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
+      <c r="C14" s="0">
+        <v>0</v>
+      </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
+      <c r="F14" s="0">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
-      <c r="J14" s="0">
-        <v>1</v>
-      </c>
+      <c r="J14" s="0"/>
       <c r="K14" s="0"/>
-      <c r="L14" s="0">
-        <v>1</v>
-      </c>
+      <c r="L14" s="0"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
       <c r="O14" s="0"/>
@@ -3005,13 +4966,9 @@
       <c r="A15" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="0">
-        <v>0</v>
-      </c>
+      <c r="B15" s="0"/>
       <c r="C15" s="0"/>
-      <c r="D15" s="0">
-        <v>1</v>
-      </c>
+      <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
@@ -3020,7 +4977,9 @@
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
-      <c r="M15" s="0"/>
+      <c r="M15" s="0">
+        <v>1</v>
+      </c>
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
       <c r="P15" s="0"/>
@@ -3030,22 +4989,22 @@
         <v>113</v>
       </c>
       <c r="B16" s="0"/>
-      <c r="C16" s="0">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0">
-        <v>1</v>
-      </c>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
-      <c r="K16" s="0">
-        <v>0</v>
-      </c>
-      <c r="L16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0">
+        <v>1</v>
+      </c>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
       <c r="O16" s="0"/>
@@ -3095,7 +5054,7 @@
         <v>0.54951025142376531</v>
       </c>
       <c r="C3" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3106,7 +5065,7 @@
         <v>0.20606634428391191</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3117,7 +5076,7 @@
         <v>0.20606634428391191</v>
       </c>
       <c r="C5" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3128,7 +5087,7 @@
         <v>0.20606634428391191</v>
       </c>
       <c r="C6" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -3139,7 +5098,7 @@
         <v>0.20606634428391191</v>
       </c>
       <c r="C7" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -3147,10 +5106,10 @@
         <v>136</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.13737756285594172</v>
+        <v>0.20606634428391191</v>
       </c>
       <c r="C8" s="0">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -3161,7 +5120,7 @@
         <v>-0.13737756285594172</v>
       </c>
       <c r="C9" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -3172,7 +5131,7 @@
         <v>-0.13737756285594172</v>
       </c>
       <c r="C10" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -3183,7 +5142,7 @@
         <v>-0.13737756285594172</v>
       </c>
       <c r="C11" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -3194,7 +5153,7 @@
         <v>-0.13737756285594172</v>
       </c>
       <c r="C12" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -3213,10 +5172,10 @@
         <v>142</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.13737756285594172</v>
+        <v>-0.48082146999579489</v>
       </c>
       <c r="C14" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -3227,7 +5186,7 @@
         <v>-0.48082146999579489</v>
       </c>
       <c r="C15" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -3238,7 +5197,7 @@
         <v>-0.48082146999579489</v>
       </c>
       <c r="C16" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3323,22 +5282,24 @@
         <v>148</v>
       </c>
       <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
-      <c r="H2" s="0">
-        <v>1</v>
-      </c>
+      <c r="H2" s="0"/>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
+      <c r="N2" s="0">
+        <v>1</v>
+      </c>
       <c r="O2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="0"/>
     </row>
@@ -3346,7 +5307,9 @@
       <c r="A3" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="0"/>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
       <c r="C3" s="0"/>
       <c r="D3" s="0"/>
       <c r="E3" s="0"/>
@@ -3357,10 +5320,10 @@
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0">
-        <v>0</v>
-      </c>
+      <c r="K3" s="0">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
       <c r="O3" s="0"/>
@@ -3374,19 +5337,19 @@
       <c r="C4" s="0"/>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
-      <c r="L4" s="0"/>
-      <c r="M4" s="0">
-        <v>0</v>
-      </c>
-      <c r="N4" s="0">
-        <v>1</v>
-      </c>
+      <c r="L4" s="0">
+        <v>1</v>
+      </c>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
       <c r="O4" s="0"/>
       <c r="P4" s="0"/>
     </row>
@@ -3398,18 +5361,18 @@
       <c r="C5" s="0"/>
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
-      <c r="F5" s="0">
-        <v>1</v>
-      </c>
+      <c r="F5" s="0"/>
       <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
+      <c r="H5" s="0">
+        <v>1</v>
+      </c>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
-      <c r="L5" s="0">
-        <v>1</v>
-      </c>
-      <c r="M5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0">
+        <v>1</v>
+      </c>
       <c r="N5" s="0"/>
       <c r="O5" s="0">
         <v>0</v>
@@ -3422,25 +5385,25 @@
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0">
-        <v>0</v>
-      </c>
+      <c r="D6" s="0">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0"/>
       <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
+      <c r="G6" s="0">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
-      <c r="K6" s="0">
-        <v>1</v>
-      </c>
+      <c r="K6" s="0"/>
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
-      <c r="P6" s="0">
-        <v>0</v>
-      </c>
+      <c r="P6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
@@ -3452,43 +5415,43 @@
       </c>
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
+      <c r="F7" s="0">
+        <v>0</v>
+      </c>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
-      <c r="J7" s="0">
-        <v>0</v>
-      </c>
+      <c r="J7" s="0"/>
       <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
+      <c r="L7" s="0">
+        <v>0</v>
+      </c>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>
-      <c r="P7" s="0">
-        <v>0</v>
-      </c>
+      <c r="P7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="0">
-        <v>0</v>
-      </c>
+      <c r="B8" s="0"/>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
+      <c r="E8" s="0">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0">
+        <v>1</v>
+      </c>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
-      <c r="L8" s="0">
-        <v>0</v>
-      </c>
+      <c r="L8" s="0"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
       <c r="O8" s="0"/>
@@ -3505,13 +5468,13 @@
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0"/>
-      <c r="J9" s="0">
-        <v>0</v>
-      </c>
-      <c r="K9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0">
+        <v>1</v>
+      </c>
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
@@ -3529,20 +5492,18 @@
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
-      <c r="G10" s="0">
-        <v>1</v>
-      </c>
+      <c r="G10" s="0"/>
       <c r="H10" s="0"/>
-      <c r="I10" s="0">
-        <v>1</v>
-      </c>
+      <c r="I10" s="0"/>
       <c r="J10" s="0"/>
-      <c r="K10" s="0">
-        <v>1</v>
-      </c>
+      <c r="K10" s="0"/>
       <c r="L10" s="0"/>
-      <c r="M10" s="0"/>
-      <c r="N10" s="0"/>
+      <c r="M10" s="0">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0">
+        <v>0</v>
+      </c>
       <c r="O10" s="0"/>
       <c r="P10" s="0"/>
     </row>
@@ -3551,24 +5512,22 @@
         <v>157</v>
       </c>
       <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
+      <c r="C11" s="0">
+        <v>1</v>
+      </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
-      <c r="F11" s="0">
-        <v>0</v>
-      </c>
+      <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0">
-        <v>0</v>
-      </c>
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0"/>
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
-      <c r="N11" s="0">
-        <v>0</v>
-      </c>
+      <c r="N11" s="0"/>
       <c r="O11" s="0"/>
       <c r="P11" s="0"/>
     </row>
@@ -3577,25 +5536,25 @@
         <v>158</v>
       </c>
       <c r="B12" s="0"/>
-      <c r="C12" s="0">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0">
-        <v>0</v>
-      </c>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0"/>
       <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0">
-        <v>1</v>
-      </c>
+      <c r="G12" s="0">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
+      <c r="O12" s="0">
+        <v>0</v>
+      </c>
       <c r="P12" s="0"/>
     </row>
     <row r="13">
@@ -3604,58 +5563,58 @@
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
-      <c r="D13" s="0">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0">
+        <v>0</v>
+      </c>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
+      <c r="J13" s="0">
+        <v>1</v>
+      </c>
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
-      <c r="N13" s="0">
-        <v>1</v>
-      </c>
-      <c r="O13" s="0">
-        <v>0</v>
-      </c>
-      <c r="P13" s="0"/>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="0"/>
+      <c r="B14" s="0">
+        <v>0</v>
+      </c>
       <c r="C14" s="0"/>
-      <c r="D14" s="0">
-        <v>0</v>
-      </c>
+      <c r="D14" s="0"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0">
-        <v>1</v>
-      </c>
+      <c r="J14" s="0">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0"/>
       <c r="L14" s="0"/>
-      <c r="M14" s="0">
-        <v>0</v>
-      </c>
+      <c r="M14" s="0"/>
       <c r="N14" s="0"/>
       <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
+      <c r="P14" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
         <v>161</v>
       </c>
       <c r="B15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0"/>
       <c r="D15" s="0"/>
@@ -3668,10 +5627,10 @@
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="0">
-        <v>1</v>
-      </c>
+      <c r="L15" s="0">
+        <v>1</v>
+      </c>
+      <c r="M15" s="0"/>
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
       <c r="P15" s="0"/>
@@ -3684,12 +5643,8 @@
       <c r="C16" s="0"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
-      <c r="F16" s="0">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0">
-        <v>1</v>
-      </c>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0">
         <v>0</v>
@@ -3697,8 +5652,12 @@
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
-      <c r="M16" s="0"/>
-      <c r="N16" s="0"/>
+      <c r="M16" s="0">
+        <v>1</v>
+      </c>
+      <c r="N16" s="0">
+        <v>0</v>
+      </c>
       <c r="O16" s="0"/>
       <c r="P16" s="0"/>
     </row>
@@ -3735,7 +5694,7 @@
         <v>0.54951025142376531</v>
       </c>
       <c r="C2" s="0">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3743,10 +5702,10 @@
         <v>180</v>
       </c>
       <c r="B3" s="0">
-        <v>0.54951025142376531</v>
+        <v>0.20606634428391191</v>
       </c>
       <c r="C3" s="0">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3757,7 +5716,7 @@
         <v>0.20606634428391191</v>
       </c>
       <c r="C4" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3768,7 +5727,7 @@
         <v>0.20606634428391191</v>
       </c>
       <c r="C5" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3779,7 +5738,7 @@
         <v>0.20606634428391191</v>
       </c>
       <c r="C6" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -3790,7 +5749,7 @@
         <v>0.20606634428391191</v>
       </c>
       <c r="C7" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -3801,7 +5760,7 @@
         <v>0.20606634428391191</v>
       </c>
       <c r="C8" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -3812,7 +5771,7 @@
         <v>-0.13737756285594172</v>
       </c>
       <c r="C9" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -3823,7 +5782,7 @@
         <v>-0.13737756285594172</v>
       </c>
       <c r="C10" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -3834,7 +5793,7 @@
         <v>-0.13737756285594172</v>
       </c>
       <c r="C11" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -3845,7 +5804,7 @@
         <v>-0.13737756285594172</v>
       </c>
       <c r="C12" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -3856,7 +5815,7 @@
         <v>-0.13737756285594172</v>
       </c>
       <c r="C13" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -3864,10 +5823,10 @@
         <v>191</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.48082146999579489</v>
+        <v>-0.13737756285594172</v>
       </c>
       <c r="C14" s="0">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -3878,7 +5837,7 @@
         <v>-0.48082146999579489</v>
       </c>
       <c r="C15" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -3889,7 +5848,7 @@
         <v>-0.48082146999579489</v>
       </c>
       <c r="C16" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
